--- a/data/ED/program_useful_link_sample.xlsx
+++ b/data/ED/program_useful_link_sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>accounting and finance  
-    msc</t>
+          <t>MCouns Counselling (Interpersonal Dialogue)-2023不开放申请</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=416</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Important points to note when applying for this programme:https://www.business-school.ed.ac.uk/msc/accounting-finance/entry-requirements</t>
+          <t>Counselling (Interpersonal Dialogue) - entry requirements:https://www.ed.ac.uk/health/subject-areas/counselling/postgraduate-taught/placement-based-programmes/master-counselling-id/entry</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -503,40 +502,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTMSCACFIN1F</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Master of Counselling (Interpersonal Dialogue)applications process:https://www.ed.ac.uk/health/subject-areas/counselling/postgraduate-taught/placement-based-programmes/master-counselling-id</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Admissions Strategy:https://www.business-school.ed.ac.uk/msc/selection-admissions-strategy</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -545,13 +539,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>acoustics and music technology  
-    msc</t>
+          <t>MSc Carbon Management</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=478</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,40 +585,50 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Carbon Management (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Carbon+Management+%28MSC%29</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -634,13 +637,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>advanced chemical engineering  
-    msc</t>
+          <t>MSc Counselling Studies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=913</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,35 +683,30 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://edin.ac/fee-deposits</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -718,14 +715,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>online
-    advanced clinical practice (online learning)  
-    pgprofdev</t>
+          <t>MSc Earth Observation and Geoinformation Management</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=910</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -766,35 +761,50 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTPDVADVCP1U</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Earth Observation and Geoinformation Management (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Earth+Observation+and+Geoinformation+Management+%28MSc%29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -803,13 +813,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>advanced nursing  
-    msc</t>
+          <t>MSc Ecological Economics</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=419</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -850,30 +859,50 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Ecological Economics (SAC) (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Ecological+Economics+</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -882,14 +911,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>online
-    advanced nursing (online learning)  
-    msc</t>
+          <t>MSc Energy, Society and Sustainability</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1049</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2022&amp;id=934</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -930,35 +957,50 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTMSCADNOL1U</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>Energy, Society and Sustainability (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Energy%2C+Society+and+Sustainability+%28MSc%29</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -967,13 +1009,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>advanced power engineering  
-    msc</t>
+          <t>MSc Environment and Development</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=960</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1014,35 +1055,50 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://edin.ac/fee-deposits</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Environment and Development (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment+and+Development+%28MSc%29+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1051,13 +1107,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>advanced social work studies (mental health officer award)  
-    pgcert</t>
+          <t>MSc Environment, Culture and Society</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=634</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1098,30 +1153,50 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment%2C+Culture+and+Society+%28MSc%29:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment%2C+Culture+and+Society+%28MSc%29</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1130,13 +1205,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>advanced sustainable design  
-    msc</t>
+          <t>MSc Environmental Protection and Management</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=417</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1177,40 +1251,50 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Environmental Protection and Management (MSC) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environmental+protection+and+management</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1219,13 +1303,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>advanced technology for financial computing  
-    msc</t>
+          <t>MSc Geographical Information Science</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=992</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1266,35 +1349,377 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://edin.ac/fee-deposits</t>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MSc Human Anatomy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/medicine-vet-medicine/postgraduate/how-to-apply/costs</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pay a tuition fee deposit:https://www.epay.ed.ac.uk/product-catalogue/college-of-medicine-and-veterinary-medicine/postgraduate-tuition-fee-deposits</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MSc Materials Chemistry</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>See the wide range of careers a Chemistry degree can lead to on the Royal Society of Chemistry website:https://edu.rsc.org/future-in-chemistry/career-options/job-profiles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MSc Medicinal and Biological Chemistry</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>See the wide range of careers a Chemistry degree can lead to on the Royal Society of Chemistry website:https://edu.rsc.org/future-in-chemistry/career-options/job-profiles</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MSc Soils and Sustainability</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Soils and Sustainability (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=soils+and+sustainability</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>

--- a/data/ED/program_useful_link_sample.xlsx
+++ b/data/ED/program_useful_link_sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MCouns Counselling (Interpersonal Dialogue)-2023不开放申请</t>
+          <t>Master's Corporate Law Llm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=787</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,22 +482,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Counselling (Interpersonal Dialogue) - entry requirements:https://www.ed.ac.uk/health/subject-areas/counselling/postgraduate-taught/placement-based-programmes/master-counselling-id/entry</t>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -507,30 +507,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Master of Counselling (Interpersonal Dialogue)applications process:https://www.ed.ac.uk/health/subject-areas/counselling/postgraduate-taught/placement-based-programmes/master-counselling-id</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -539,12 +534,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MSc Carbon Management</t>
+          <t>Master's European Law Llm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -585,50 +580,30 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Carbon Management (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Carbon+Management+%28MSC%29</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
-        <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -637,12 +612,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSc Counselling Studies</t>
+          <t>Master's Commercial Law Llm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=161</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -683,30 +658,35 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -715,12 +695,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MSc Earth Observation and Geoinformation Management</t>
+          <t>Master's Global Environment And Climate Change Law Llm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=642</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -761,50 +741,30 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Earth Observation and Geoinformation Management (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Earth+Observation+and+Geoinformation+Management+%28MSc%29</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -813,12 +773,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MSc Ecological Economics</t>
+          <t>Master's International Economic Law Llm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -859,50 +819,35 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Ecological Economics (SAC) (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Ecological+Economics+</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -911,12 +856,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MSc Energy, Society and Sustainability</t>
+          <t>Master's International Law Llm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2022&amp;id=934</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -957,50 +902,30 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Energy, Society and Sustainability (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Energy%2C+Society+and+Sustainability+%28MSc%29</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
-        <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1009,12 +934,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MSc Environment and Development</t>
+          <t>Master's Law Llm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=167</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1055,50 +980,35 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Environment and Development (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment+and+Development+%28MSc%29+</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1107,12 +1017,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MSc Environment, Culture and Society</t>
+          <t>Master's Intellectual Property Law Llm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1153,50 +1063,35 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment%2C+Culture+and+Society+%28MSc%29:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environment%2C+Culture+and+Society+%28MSc%29</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1205,12 +1100,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MSc Environmental Protection and Management</t>
+          <t>Msc Global Crime, Justice And Security</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=621</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1251,50 +1146,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Environmental Protection and Management (MSC) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=Environmental+protection+and+management</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
-        <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1303,12 +1178,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MSc Geographical Information Science</t>
+          <t>Master's Online Innovation, Technology And The Law (online Learning) Llm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1329,65 +1204,75 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Entry requirements:#proxy_collapseentry_req</t>
+          <t>Detailed course descriptions:https://www.law.ed.ac.uk/study/online-masters-degrees/llm-innovation-technology-law</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Detailed fees information:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMINFTD1P</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMINFTD4P</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1396,12 +1281,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MSc Human Anatomy</t>
+          <t>Master's Criminal Law And Criminal Justice Llm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=772</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1437,40 +1322,30 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/medicine-vet-medicine/postgraduate/how-to-apply/costs</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pay a tuition fee deposit:https://www.epay.ed.ac.uk/product-catalogue/college-of-medicine-and-veterinary-medicine/postgraduate-tuition-fee-deposits</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
-        <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1479,12 +1354,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MSc Materials Chemistry</t>
+          <t>Msc Criminology And Criminal Justice</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=162</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1500,55 +1375,50 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>See the wide range of careers a Chemistry degree can lead to on the Royal Society of Chemistry website:https://edu.rsc.org/future-in-chemistry/career-options/job-profiles</t>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Entry requirements:#proxy_collapseentry_req</t>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1557,12 +1427,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MSc Medicinal and Biological Chemistry</t>
+          <t>Msc Mathematical Economics And Econometrics</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1003</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1578,55 +1448,50 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>See the wide range of careers a Chemistry degree can lead to on the Royal Society of Chemistry website:https://edu.rsc.org/future-in-chemistry/career-options/job-profiles</t>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Entry requirements:#proxy_collapseentry_req</t>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
-        <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
@@ -1635,12 +1500,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MSc Soils and Sustainability</t>
+          <t>Master's Online International Commercial Law And Practice (online Learning) Llm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=825</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1656,70 +1521,1632 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Entry requirements:#proxy_collapseentry_req</t>
+          <t>Detailed information about the programme and your course options:https://www.law.ed.ac.uk/study/online-masters-degrees/llm-international-commercial-law-and-practice</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Tuition fee deposits:https://www.ed.ac.uk/science-engineering/studying/postgraduate/taught-postgraduate/deposits</t>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Soils and Sustainability (MSc) Tuition fees:https://www.ed.ac.uk/tuition-fees/find/postgraduate-taught/2023-2024/taught-masters?keyword=soils+and+sustainability</t>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>Detailed fees information:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Application deadlines:#proxy_collapseDeadlines</t>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMINCLP2P</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>How to apply:#proxy_collapseHowToApply</t>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMINCLP3P</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>College of Science &amp; Engineering Admissions Enquiries:https://www.ed.ac.uk/science-engineering/contact/undergraduate-or-postgraduate-taught-enquiries</t>
+          <t>How to apply:#proxy_collapseHowToApply</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Master's Online Law (online Learning) Pgcert</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=782</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Detailed information about the programme and your course options:https://www.law.ed.ac.uk/study/online-masters-degrees/postgraduate-certificate-law</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Detailed fees information:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTPGCLAWAA1F</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTPGCLAWAA1P</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Master's Online Rcvs Certificate In Advanced Veterinary Practice (online Learning) Pgprofdev</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=888</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTPDVRCVET1U</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Master's Innovation, Technology And The Law Llm</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=503</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Msc Urban Strategies And Design</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=822</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>College of Arts, Humanities &amp; Social Sciences Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Master's Outdoor Environmental And Sustainability Education Msc, Pgdip, Pgcert</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=382</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Msc Economics / Economics (econometrics) / Economics (finance)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=272</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Eligibility requirements:https://www.ed.ac.uk/economics/study-with-us/postgraduate/scottish-graduate-programme-economics/prospective-students/eligibility-application</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>cahss.pgadmissions@ed.ac.uk:/studying/postgraduate/degrees/cahss.pgadmissions@ed.ac.uk</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Master's Online Law (online Learning) Llm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=767</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Detailed information about the programme and your course options:https://www.law.ed.ac.uk/study/online-masters-degrees/llm-law</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Detailed fees information:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMLAWAB1P</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMLAWAB2P</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Master's Online Information Technology Law (online Learning) Llm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=502</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Detailed course descriptions:https://www.law.ed.ac.uk/study/online-masters-degrees/llm-information-technology-law</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Detailed fees information:https://www.law.ed.ac.uk/study/online-masters-degrees/tuition-fees</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMITLDL2P</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMITLDL4P</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Master's Online Medical Law And Ethics (online Learning) Llm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=505</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Detailed information about the programme and your course options:http://www.law.ed.ac.uk/teaching/online_distance_learning/llm_degrees/llm_in_medical_law_and_ethics/modules</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:http://www.law.ed.ac.uk/teaching/online_distance_learning/llm_degrees/key_information/fees_and_scholarships/llm_deposit_policy</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Detailed fees information:http://www.law.ed.ac.uk/teaching/online_distance_learning/llm_degrees/key_information/fees_and_scholarships/fees</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMMELDL2P</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PTLLMMELDL4P</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Master's Comparative And European Private Law Llm</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=684</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Master's Outdoor Education Msc, Pgdip, Pgcert</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=115</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Master's Human Rights Llm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=845</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Master's International Banking Law And Finance Llm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=859</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Tuition fee deposit policy:https://www.law.ed.ac.uk/study/masters-degrees/fees</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Master's Professional Legal Practice Diploma</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=675</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Master's Medical Law And Ethics Llm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=867</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Master's Economics Phd With Integrated Study</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=278</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PRPHDECNMC2F</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Master's Law Llm By Research</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=993</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PRLLMLAWAA1F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PRLLMLAWAA1P</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Master's Inclusive Education Msc, Pgdip, Pgcert</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=378</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Postgraduate entry requirements for students from China:https://www.ed.ac.uk/studying/international/postgraduate-entry/asia/china</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Admissions Office:https://www.ed.ac.uk/arts-humanities-soc-sci/about-us/staff-contacts/college-office</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Master's Law Phd</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=168</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Degree finder:/studying/postgraduate/degrees</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Entry requirements:#proxy_collapseentry_req</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Entry requirements by country:http://www.edin.ac/pgdf-entry-country</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>English language requirements:http://www.edin.ac/pgdf-english</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PRPHDLAWAA1F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Tuition fees:http://www.ed.ac.uk/studying/postgraduate/fees?programme_code=PRPHDLAWAA2P</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Application deadlines:#proxy_collapseDeadlines</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>How to apply:#proxy_collapseHowToApply</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>How to apply:http://www.edin.ac/pgdf-apply</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Privacy statement for applicants:/studying/admissions/privacy-statement</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Terms and conditions of admission:https://edin.ac/terms</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Admissions policies and procedures:/studying/admissions/policies-procedures</t>
         </is>
